--- a/src/public/template-LMG.xlsx
+++ b/src/public/template-LMG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NestJS\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NestJS\GitHub\lmg-group-api\src\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6A9C03-F522-403E-9610-CC57A6CE8194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1CFA39-63D6-489B-ABEB-7F6A073B0135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Старый шаблон" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,19 +25,6 @@
     <definedName name="ФильтрованныеКатегории">GetNonEmptyValues(#REF!)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -156,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
   <si>
     <t>Раздел</t>
   </si>
@@ -393,6 +380,12 @@
   </si>
   <si>
     <t>Изображение(серый блок) (ссылка)</t>
+  </si>
+  <si>
+    <t>Ломоносовский</t>
+  </si>
+  <si>
+    <t>Гатчина</t>
   </si>
 </sst>
 </file>
@@ -683,10 +676,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2B1E81D-B02E-4615-885E-1B2FB807133E}" name="РайоныСПБ" displayName="РайоныСПБ" ref="A1:A24" totalsRowShown="0">
-  <autoFilter ref="A1:A24" xr:uid="{C2B1E81D-B02E-4615-885E-1B2FB807133E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2B1E81D-B02E-4615-885E-1B2FB807133E}" name="РайоныСПБ" displayName="РайоныСПБ" ref="A1:A26" totalsRowShown="0">
+  <autoFilter ref="A1:A26" xr:uid="{C2B1E81D-B02E-4615-885E-1B2FB807133E}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A26">
+    <sortCondition ref="A2:A26"/>
+  </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{443E903E-BDC9-444F-97E0-4451C4A79D4F}" name="Название"/>
   </tableColumns>
@@ -1371,10 +1367,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D5884F-BD9B-485F-AEF5-19F35E5C24F9}">
   <sheetPr codeName="Лист7"/>
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1404,101 +1400,111 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1644,8 +1650,8 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/public/template-LMG.xlsx
+++ b/src/public/template-LMG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NestJS\GitHub\lmg-group-api\src\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1CFA39-63D6-489B-ABEB-7F6A073B0135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE81AA3-EC5D-4ED3-A5AD-71AFC527EAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Старый шаблон" sheetId="1" state="hidden" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="83">
   <si>
     <t>Раздел</t>
   </si>
@@ -386,6 +386,12 @@
   </si>
   <si>
     <t>Гатчина</t>
+  </si>
+  <si>
+    <t>SEO заголовок</t>
+  </si>
+  <si>
+    <t>SEO Описание</t>
   </si>
 </sst>
 </file>
@@ -741,8 +747,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5A138C53-F028-4EBB-A695-A2CC6ACB1F84}" name="ЖК" displayName="ЖК" ref="A1:Q12001" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:Q12001" xr:uid="{5A138C53-F028-4EBB-A695-A2CC6ACB1F84}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5A138C53-F028-4EBB-A695-A2CC6ACB1F84}" name="ЖК" displayName="ЖК" ref="A1:S12001" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:S12001" xr:uid="{5A138C53-F028-4EBB-A695-A2CC6ACB1F84}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -760,8 +766,10 @@
     <filterColumn colId="14" hiddenButton="1"/>
     <filterColumn colId="15" hiddenButton="1"/>
     <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
+    <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="17">
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{B9FD7143-B79F-4737-B75C-B320A71A227E}" name="Раздел"/>
     <tableColumn id="2" xr3:uid="{A2F1646E-9B84-4152-9C89-5E9D221AA6BE}" name="Категория"/>
     <tableColumn id="3" xr3:uid="{375D1907-769A-4B19-AE6C-E86018FE644F}" name="Район"/>
@@ -779,6 +787,8 @@
     <tableColumn id="8" xr3:uid="{511698B2-C059-4C35-8063-3F6BEA13FC55}" name="Заголовок(серый блок)"/>
     <tableColumn id="9" xr3:uid="{D29D3626-3F66-40B3-B9EA-BA3C7D16294F}" name="Описание(серый блок)"/>
     <tableColumn id="11" xr3:uid="{936DA4DE-EBD7-436A-B7C7-92076988CAA5}" name="Иконка (ссылка)"/>
+    <tableColumn id="6" xr3:uid="{174A9D39-E5EA-45F1-873C-747C68F65430}" name="SEO заголовок"/>
+    <tableColumn id="10" xr3:uid="{F8F2AAC1-A65B-4F62-AD0F-B938E24888FF}" name="SEO Описание"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1648,10 +1658,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5515F1-0048-4876-81CA-DE1EA6B76D1D}">
   <sheetPr codeName="Лист5"/>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1669,9 +1679,11 @@
     <col min="13" max="13" width="19.21875" customWidth="1"/>
     <col min="14" max="16" width="26.44140625" customWidth="1"/>
     <col min="17" max="17" width="10.5546875" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" customWidth="1"/>
+    <col min="19" max="19" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1722,6 +1734,12 @@
       </c>
       <c r="Q1" s="15" t="s">
         <v>75</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
